--- a/datos/df-final.xlsx
+++ b/datos/df-final.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d75fbf514f377552/Documentos/GitHub/TFM/datos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DE9921ED7E45E0123C7A3049070EC074DD0FCD30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B905EE1-1D81-4F9E-8DB0-94DB083BB725}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="550" windowWidth="9040" windowHeight="6490"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1742,7 +1748,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1829,6 +1835,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2118,16 +2127,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB543"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="23.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="28" width="8.7265625" style="3"/>
   </cols>

--- a/datos/df-final.xlsx
+++ b/datos/df-final.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d75fbf514f377552/Documentos/GitHub/TFM/datos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DE9921ED7E45E0123C7A3049070EC074DD0FCD30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B905EE1-1D81-4F9E-8DB0-94DB083BB725}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="290" yWindow="550" windowWidth="9040" windowHeight="6490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1748,7 +1742,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1835,9 +1829,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2127,16 +2118,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="4" max="4" width="36.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="28" width="8.7265625" style="3"/>
   </cols>
